--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H2">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I2">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J2">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>1551.117172741561</v>
+        <v>1387.699831495072</v>
       </c>
       <c r="R2">
-        <v>13960.05455467405</v>
+        <v>12489.29848345565</v>
       </c>
       <c r="S2">
-        <v>0.0905131621920353</v>
+        <v>0.08420408016519162</v>
       </c>
       <c r="T2">
-        <v>0.09462682647628887</v>
+        <v>0.08664283664494463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H3">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I3">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J3">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>2390.057527254966</v>
+        <v>2461.065448634752</v>
       </c>
       <c r="R3">
-        <v>21510.5177452947</v>
+        <v>22149.58903771277</v>
       </c>
       <c r="S3">
-        <v>0.1394682931853322</v>
+        <v>0.1493347103064485</v>
       </c>
       <c r="T3">
-        <v>0.145806882210043</v>
+        <v>0.1536598094191924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H4">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I4">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J4">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>1036.578772395435</v>
+        <v>1413.587429702688</v>
       </c>
       <c r="R4">
-        <v>9329.20895155892</v>
+        <v>12722.28686732419</v>
       </c>
       <c r="S4">
-        <v>0.0604880303045174</v>
+        <v>0.08577491079101209</v>
       </c>
       <c r="T4">
-        <v>0.06323710506737477</v>
+        <v>0.08825916237456288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H5">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I5">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J5">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>601.375153908101</v>
+        <v>456.8278902374881</v>
       </c>
       <c r="R5">
-        <v>3608.250923448606</v>
+        <v>2740.967341424929</v>
       </c>
       <c r="S5">
-        <v>0.03509236297586486</v>
+        <v>0.02771980756804567</v>
       </c>
       <c r="T5">
-        <v>0.02445816616825194</v>
+        <v>0.01901509407648481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.70430066666666</v>
+        <v>48.091872</v>
       </c>
       <c r="H6">
-        <v>140.112902</v>
+        <v>144.275616</v>
       </c>
       <c r="I6">
-        <v>0.4277960227396157</v>
+        <v>0.421093842675958</v>
       </c>
       <c r="J6">
-        <v>0.4350095176968582</v>
+        <v>0.423782205092405</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>1751.979261568507</v>
+        <v>1220.528893563296</v>
       </c>
       <c r="R6">
-        <v>15767.81335411657</v>
+        <v>10984.76004206966</v>
       </c>
       <c r="S6">
-        <v>0.102234174081866</v>
+        <v>0.07406033384526023</v>
       </c>
       <c r="T6">
-        <v>0.1068805377748996</v>
+        <v>0.07620530257722034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>42.154816</v>
       </c>
       <c r="I7">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J7">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>466.6740755348906</v>
+        <v>405.4616620725832</v>
       </c>
       <c r="R7">
-        <v>4200.066679814016</v>
+        <v>3649.154958653248</v>
       </c>
       <c r="S7">
-        <v>0.02723207958238853</v>
+        <v>0.02460296205432872</v>
       </c>
       <c r="T7">
-        <v>0.02846972978100108</v>
+        <v>0.02531552411798884</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>42.154816</v>
       </c>
       <c r="I8">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J8">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
-        <v>719.0803548615966</v>
+        <v>719.0803548615964</v>
       </c>
       <c r="R8">
-        <v>6471.723193754369</v>
+        <v>6471.723193754367</v>
       </c>
       <c r="S8">
-        <v>0.0419608769295331</v>
+        <v>0.04363299502655832</v>
       </c>
       <c r="T8">
-        <v>0.04386792510441356</v>
+        <v>0.04489671347278199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>42.154816</v>
       </c>
       <c r="I9">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J9">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>311.8684060932195</v>
+        <v>413.0255662816213</v>
       </c>
       <c r="R9">
-        <v>2806.815654838975</v>
+        <v>3717.230096534592</v>
       </c>
       <c r="S9">
-        <v>0.01819862233450389</v>
+        <v>0.02506193133711194</v>
       </c>
       <c r="T9">
-        <v>0.01902571776357791</v>
+        <v>0.02578778627577525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>42.154816</v>
       </c>
       <c r="I10">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J10">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>180.931652960608</v>
+        <v>133.477133493088</v>
       </c>
       <c r="R10">
-        <v>1085.589917763648</v>
+        <v>800.8628009585281</v>
       </c>
       <c r="S10">
-        <v>0.01055800060620253</v>
+        <v>0.008099243794504905</v>
       </c>
       <c r="T10">
-        <v>0.007358562129560956</v>
+        <v>0.00555587849312601</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>42.154816</v>
       </c>
       <c r="I11">
-        <v>0.1287080801746603</v>
+        <v>0.1230362686979479</v>
       </c>
       <c r="J11">
-        <v>0.1308783553477452</v>
+        <v>0.1238217612582891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>527.1060862563271</v>
+        <v>356.6172327473848</v>
       </c>
       <c r="R11">
-        <v>4743.954776306944</v>
+        <v>3209.555094726464</v>
       </c>
       <c r="S11">
-        <v>0.03075850072203222</v>
+        <v>0.02163913648544406</v>
       </c>
       <c r="T11">
-        <v>0.0321564205691917</v>
+        <v>0.022265858898617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H12">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I12">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J12">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>506.4362641302581</v>
+        <v>617.8535839410711</v>
       </c>
       <c r="R12">
-        <v>4557.926377172323</v>
+        <v>5560.682255469639</v>
       </c>
       <c r="S12">
-        <v>0.02955234364024925</v>
+        <v>0.03749066731273841</v>
       </c>
       <c r="T12">
-        <v>0.03089544576600372</v>
+        <v>0.03857648889834133</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H13">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I13">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J13">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>780.3484007723509</v>
+        <v>1095.754336234436</v>
       </c>
       <c r="R13">
-        <v>7023.135606951158</v>
+        <v>9861.789026109924</v>
       </c>
       <c r="S13">
-        <v>0.04553608367352623</v>
+        <v>0.06648915267953495</v>
       </c>
       <c r="T13">
-        <v>0.0476056187170058</v>
+        <v>0.0684148414539078</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H14">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I14">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J14">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>338.4406350429463</v>
+        <v>629.379668306859</v>
       </c>
       <c r="R14">
-        <v>3045.965715386517</v>
+        <v>5664.417014761731</v>
       </c>
       <c r="S14">
-        <v>0.01974920568887389</v>
+        <v>0.0381900572743859</v>
       </c>
       <c r="T14">
-        <v>0.0206467724086437</v>
+        <v>0.03929613490693448</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H15">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I15">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J15">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>196.3476335882985</v>
+        <v>203.3961111916965</v>
       </c>
       <c r="R15">
-        <v>1178.085801529791</v>
+        <v>1220.376667150179</v>
       </c>
       <c r="S15">
-        <v>0.01145757749144659</v>
+        <v>0.01234184948601016</v>
       </c>
       <c r="T15">
-        <v>0.007985536179599989</v>
+        <v>0.008466199791546553</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.248849</v>
+        <v>21.412221</v>
       </c>
       <c r="H16">
-        <v>45.74654700000001</v>
+        <v>64.23666299999999</v>
       </c>
       <c r="I16">
-        <v>0.1396744381232708</v>
+        <v>0.1874860355013181</v>
       </c>
       <c r="J16">
-        <v>0.1420296279836289</v>
+        <v>0.1886829905749125</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>572.0172838356388</v>
+        <v>543.4231049659029</v>
       </c>
       <c r="R16">
-        <v>5148.155554520748</v>
+        <v>4890.807944693126</v>
       </c>
       <c r="S16">
-        <v>0.03337922762917482</v>
+        <v>0.03297430874864866</v>
       </c>
       <c r="T16">
-        <v>0.03489625491237573</v>
+        <v>0.03392932552418236</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H17">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I17">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J17">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>180.374895126294</v>
+        <v>62.71667101053917</v>
       </c>
       <c r="R17">
-        <v>1082.249370757764</v>
+        <v>376.300026063235</v>
       </c>
       <c r="S17">
-        <v>0.01052551182131603</v>
+        <v>0.003805577743549753</v>
       </c>
       <c r="T17">
-        <v>0.007335918567487208</v>
+        <v>0.002610531066326489</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H18">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I18">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J18">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>277.932823774012</v>
+        <v>111.2271029903767</v>
       </c>
       <c r="R18">
-        <v>1667.596942644072</v>
+        <v>667.36261794226</v>
       </c>
       <c r="S18">
-        <v>0.01621836131972151</v>
+        <v>0.006749136725521725</v>
       </c>
       <c r="T18">
-        <v>0.01130363824195348</v>
+        <v>0.004629738841289592</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H19">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I19">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J19">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>120.540724225559</v>
+        <v>63.88665312280249</v>
       </c>
       <c r="R19">
-        <v>723.2443453533539</v>
+        <v>383.3199187368149</v>
       </c>
       <c r="S19">
-        <v>0.007033976745476514</v>
+        <v>0.003876570955004367</v>
       </c>
       <c r="T19">
-        <v>0.004902439091457182</v>
+        <v>0.002659230632197841</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H20">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I20">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J20">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>69.9321638777355</v>
+        <v>20.64619729008375</v>
       </c>
       <c r="R20">
-        <v>279.728655510942</v>
+        <v>82.58478916033501</v>
       </c>
       <c r="S20">
-        <v>0.004080788610133002</v>
+        <v>0.001252788255978647</v>
       </c>
       <c r="T20">
-        <v>0.001896112571896574</v>
+        <v>0.0005729209215437284</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.431107</v>
+        <v>2.1734975</v>
       </c>
       <c r="H21">
-        <v>10.862214</v>
+        <v>4.346995</v>
       </c>
       <c r="I21">
-        <v>0.04974715262852709</v>
+        <v>0.01903120789977957</v>
       </c>
       <c r="J21">
-        <v>0.03372399262175057</v>
+        <v>0.012768471746644</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>203.732562002596</v>
+        <v>55.16143141272583</v>
       </c>
       <c r="R21">
-        <v>1222.395372015576</v>
+        <v>330.968588476355</v>
       </c>
       <c r="S21">
-        <v>0.01188851413188004</v>
+        <v>0.003347134219725081</v>
       </c>
       <c r="T21">
-        <v>0.008285884148956126</v>
+        <v>0.00229605028528635</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H22">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I22">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J22">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N22">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O22">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P22">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q22">
-        <v>921.2311446542526</v>
+        <v>821.7328032218554</v>
       </c>
       <c r="R22">
-        <v>8291.080301888274</v>
+        <v>7395.595228996698</v>
       </c>
       <c r="S22">
-        <v>0.05375708906959385</v>
+        <v>0.04986183125951216</v>
       </c>
       <c r="T22">
-        <v>0.05620025437257876</v>
+        <v>0.05130595206503523</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H23">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I23">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J23">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P23">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q23">
-        <v>1419.490074841339</v>
+        <v>1457.331163498285</v>
       </c>
       <c r="R23">
-        <v>12775.41067357205</v>
+        <v>13115.98047148457</v>
       </c>
       <c r="S23">
-        <v>0.08283225640975193</v>
+        <v>0.08842923183627796</v>
       </c>
       <c r="T23">
-        <v>0.08659683701355404</v>
+        <v>0.09099035906095908</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H24">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I24">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J24">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N24">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O24">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P24">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q24">
-        <v>615.6392732925098</v>
+        <v>837.062262922738</v>
       </c>
       <c r="R24">
-        <v>5540.753459632588</v>
+        <v>7533.560366304641</v>
       </c>
       <c r="S24">
-        <v>0.03592472469170195</v>
+        <v>0.05079200580032155</v>
       </c>
       <c r="T24">
-        <v>0.03755744034660701</v>
+        <v>0.05226306673967483</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H25">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I25">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J25">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N25">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O25">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P25">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q25">
-        <v>357.1654876479745</v>
+        <v>270.5127249531631</v>
       </c>
       <c r="R25">
-        <v>2142.992925887847</v>
+        <v>1623.076349718978</v>
       </c>
       <c r="S25">
-        <v>0.02084186693371413</v>
+        <v>0.01641441085506211</v>
       </c>
       <c r="T25">
-        <v>0.01452606212559594</v>
+        <v>0.01125987494151587</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>27.73836633333333</v>
+        <v>28.477822</v>
       </c>
       <c r="H26">
-        <v>83.215099</v>
+        <v>85.433466</v>
       </c>
       <c r="I26">
-        <v>0.2540743063339261</v>
+        <v>0.2493526452249964</v>
       </c>
       <c r="J26">
-        <v>0.258358506350017</v>
+        <v>0.2509445713277496</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N26">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O26">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P26">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q26">
-        <v>1040.526073019102</v>
+        <v>722.7417676058126</v>
       </c>
       <c r="R26">
-        <v>9364.734657171915</v>
+        <v>6504.675908452313</v>
       </c>
       <c r="S26">
-        <v>0.06071836922916429</v>
+        <v>0.04385516547382261</v>
       </c>
       <c r="T26">
-        <v>0.06347791249168123</v>
+        <v>0.0451253185205646</v>
       </c>
     </row>
   </sheetData>
